--- a/data/trans_camb/P1802-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P1802-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>12,81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11,9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15,17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15,22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,77</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,62; 21,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 19,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 22,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 21,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 19,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 18,45</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>12,6</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17,73</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17,07</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15,17</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15,82</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,15; 16,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,92; 17,88</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 21,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 19,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 17,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 18,22</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>16,17</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20,59</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,81</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,4</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,55</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 18,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,18; 30,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 23,07</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 15,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 20,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 23,22</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>13,91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14,11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19,06</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16,62</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,48</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,43; 16,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,59; 17,09</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 22,29</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 19,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 18,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,54</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>14,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20,41</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,15</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,46</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,91; 16,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,86; 23,18</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 20,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 24,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 18,06</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 23,19</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1668,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>14,37</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18,88</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17,59</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16,67</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17,26</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,19; 15,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 21,97</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 20,29</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 18,79</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 17,63</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 19,12</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1118,6 +1884,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1127,10 +1923,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>

--- a/data/trans_camb/P1802-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,22</t>
+          <t>17,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>15,65</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,62; 21,01</t>
+          <t>10,08; 15,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 19,19</t>
+          <t>11,52; 16,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 22,0</t>
+          <t>14,5; 20,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 21,52</t>
+          <t>14,69; 19,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,28</t>
+          <t>13,02; 17,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 18,45</t>
+          <t>13,95; 17,52</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,6</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>31,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,73</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,07</t>
+          <t>14,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>23,69</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,06</t>
+          <t>13,92; 18,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 17,88</t>
+          <t>12,65; 62,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,1</t>
+          <t>17,86; 23,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,69; 19,71</t>
+          <t>12,45; 16,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,45</t>
+          <t>16,56; 20,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,22</t>
+          <t>13,36; 47,95</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,33</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>19,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>14,43</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,65</t>
+          <t>11,43; 16,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 30,78</t>
+          <t>11,68; 17,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,07</t>
+          <t>16,39; 22,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 15,57</t>
+          <t>7,25; 19,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 20,24</t>
+          <t>14,62; 18,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 23,22</t>
+          <t>9,28; 17,14</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,91</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>20,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,06</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>22,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>21,51</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,58</t>
+          <t>11,91; 16,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,09</t>
+          <t>18,27; 23,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,29</t>
+          <t>15,75; 20,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,82; 19,97</t>
+          <t>17,39; 24,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,62; 18,52</t>
+          <t>14,64; 18,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,54</t>
+          <t>19,13; 23,29</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,41</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>18,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,15</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>19,46</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,7</t>
+          <t>13,19; 15,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,18</t>
+          <t>15,47; 42,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 20,59</t>
+          <t>17,52; 20,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,15; 24,61</t>
+          <t>14,25; 18,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,06</t>
+          <t>15,76; 17,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,93; 23,19</t>
+          <t>16,22; 28,47</t>
         </is>
       </c>
     </row>
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>14,37</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>18,88</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17,59</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>16,67</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>17,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>13,19; 15,62</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>15,04; 21,97</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 20,29</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>15,82; 18,79</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>15,76; 17,63</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>16,15; 19,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P1802-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Habitat-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,22</t>
+          <t>10,3; 15,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,94</t>
+          <t>11,59; 17,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 20,34</t>
+          <t>14,47; 20,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 19,35</t>
+          <t>14,86; 19,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,05</t>
+          <t>13,06; 16,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 17,52</t>
+          <t>13,98; 17,48</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,65</t>
+          <t>13,94; 18,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 62,48</t>
+          <t>12,6; 62,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 23,07</t>
+          <t>18,16; 23,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 16,16</t>
+          <t>12,5; 16,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 20,24</t>
+          <t>16,75; 20,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 47,95</t>
+          <t>13,49; 48,4</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,58</t>
+          <t>11,55; 16,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 17,3</t>
+          <t>11,68; 17,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,29</t>
+          <t>16,28; 22,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 19,48</t>
+          <t>7,59; 19,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,62; 18,52</t>
+          <t>14,61; 18,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 17,14</t>
+          <t>9,09; 17,12</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,7</t>
+          <t>12,07; 16,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 23,76</t>
+          <t>18,26; 23,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,75; 20,59</t>
+          <t>15,73; 20,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,61</t>
+          <t>17,65; 24,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,06</t>
+          <t>14,59; 18,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,13; 23,29</t>
+          <t>18,76; 23,44</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,19; 15,62</t>
+          <t>13,21; 15,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,47; 42,06</t>
+          <t>15,51; 39,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,29</t>
+          <t>17,61; 20,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,72</t>
+          <t>14,19; 18,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,63</t>
+          <t>15,7; 17,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,47</t>
+          <t>16,13; 29,32</t>
         </is>
       </c>
     </row>
